--- a/Model-output/tukey/plastic_nitrogen.xlsx
+++ b/Model-output/tukey/plastic_nitrogen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelwooliver/Library/CloudStorage/GoogleDrive-rwoolive@utk.edu/My Drive/*1_UTK-postdoc_2020-/5_Avi Microplastic Lab incubation/microplastic-incubation/Model-output/tukey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelwooliver/Library/CloudStorage/GoogleDrive-rwoolive@utk.edu/My Drive/*1_UTK-postdoc_2020-/5_Microplastic Lab incubation/microplastic-incubation/Model-output/tukey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3BE7E-B49E-304E-8105-AD08BDEFF108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1C6839-1939-974C-BEE4-23A00DCE4CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29540" yWindow="4340" windowWidth="28160" windowHeight="17240" xr2:uid="{3D5EB4AF-76CF-1249-BEE3-2DD8521D6BC9}"/>
+    <workbookView xWindow="32920" yWindow="3220" windowWidth="34260" windowHeight="17920" xr2:uid="{3D5EB4AF-76CF-1249-BEE3-2DD8521D6BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="plastic_nitrogen" sheetId="1" r:id="rId1"/>
@@ -1034,11 +1034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01760D1F-79FF-984C-9C37-3A311BAAA496}">
-  <dimension ref="A1:N514"/>
+  <dimension ref="A1:O514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -1182,6 +1182,10 @@
       <c r="K4">
         <v>5</v>
       </c>
+      <c r="M4">
+        <f>(D4-D3)/D3</f>
+        <v>-2.2838184811022313E-2</v>
+      </c>
       <c r="N4">
         <f>D4-D3</f>
         <v>-1.0357153672378985</v>
@@ -1256,6 +1260,10 @@
       <c r="K6">
         <v>5</v>
       </c>
+      <c r="M6">
+        <f>(D6-D5)/D5</f>
+        <v>-1.1528422326575942E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1330,6 +1338,10 @@
         <f>(AVERAGE(D7:D8)-AVERAGE(D5:D6,D9:D10))/AVERAGE(D5:D6,D9:D10)</f>
         <v>0.83559108249650305</v>
       </c>
+      <c r="M8">
+        <f>(D8-D7)/D7</f>
+        <v>-2.6671452798532214E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1400,6 +1412,10 @@
       <c r="K10">
         <v>5</v>
       </c>
+      <c r="M10">
+        <f>(D10-D9)/D9</f>
+        <v>4.2350050238925949E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1548,6 +1564,10 @@
       <c r="K14">
         <v>15</v>
       </c>
+      <c r="M14">
+        <f>(D14-D13)/D13</f>
+        <v>-9.5096136262835793E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1618,8 +1638,12 @@
       <c r="K16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <f>(D16-D15)/D15</f>
+        <v>-7.6277939315092844E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>91</v>
       </c>
@@ -1654,7 +1678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1692,8 +1716,12 @@
         <f>(AVERAGE(D17:D18)-AVERAGE(D15:D16,D19:D20))/AVERAGE(D15:D16,D19:D20)</f>
         <v>0.52127484600210194</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <f>(D18-D17)/D17</f>
+        <v>-5.6626801313756685E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1728,7 +1756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>31</v>
       </c>
@@ -1762,8 +1790,12 @@
       <c r="K20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <f>(D20-D19)/D19</f>
+        <v>-2.8996290229309392E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>71</v>
       </c>
@@ -1798,7 +1830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>61</v>
       </c>
@@ -1841,7 +1873,7 @@
         <v>0.33785696604595522</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>82</v>
       </c>
@@ -1876,7 +1908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>102</v>
       </c>
@@ -1910,8 +1942,12 @@
       <c r="K24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <f>(D24-D23)/D23</f>
+        <v>-0.16781148601826471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>42</v>
       </c>
@@ -1946,7 +1982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>52</v>
       </c>
@@ -1980,8 +2016,12 @@
       <c r="K26">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <f>(D26-D25)/D25</f>
+        <v>-0.15687984622802045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>92</v>
       </c>
@@ -2016,7 +2056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
@@ -2054,8 +2094,12 @@
         <f>(AVERAGE(D27:D28)-AVERAGE(D25:D26,D29:D30))/AVERAGE(D25:D26,D29:D30)</f>
         <v>0.38311672278600556</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <f>(D28-D27)/D27</f>
+        <v>-0.13767403775456638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>22</v>
       </c>
@@ -2090,7 +2134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>32</v>
       </c>
@@ -2124,8 +2168,12 @@
       <c r="K30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <f>(D30-D29)/D29</f>
+        <v>-0.1382212307189325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -2160,7 +2208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>62</v>
       </c>
@@ -2198,6 +2246,10 @@
         <f>(D32-D31)/D31</f>
         <v>0.18715557660673099</v>
       </c>
+      <c r="O32">
+        <f>AVERAGE(M12,M22,M32)</f>
+        <v>0.25251214193548494</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -2268,6 +2320,10 @@
       <c r="K34">
         <v>193</v>
       </c>
+      <c r="M34">
+        <f>(D34-D33)/D33</f>
+        <v>-0.20982824045115939</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -2338,6 +2394,10 @@
       <c r="K36">
         <v>193</v>
       </c>
+      <c r="M36">
+        <f>(D36-D35)/D35</f>
+        <v>-0.21902463379521206</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -2412,6 +2472,10 @@
         <f>(AVERAGE(D37:D38)-AVERAGE(D33:D36,D39:D40))/AVERAGE(D33:D36,D39:D40)</f>
         <v>0.18692794984577638</v>
       </c>
+      <c r="M38">
+        <f>(D38-D37)/D37</f>
+        <v>-0.19956642218299592</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -2482,6 +2546,10 @@
       <c r="K40">
         <v>193</v>
       </c>
+      <c r="M40">
+        <f>(D40-D39)/D39</f>
+        <v>-0.2311089087989725</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -3351,7 +3419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>76</v>
       </c>
@@ -3386,7 +3454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>26</v>
       </c>
@@ -3421,7 +3489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>46</v>
       </c>
@@ -3456,7 +3524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>96</v>
       </c>
@@ -3495,7 +3563,7 @@
         <v>15.061971161785632</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>36</v>
       </c>
@@ -3530,7 +3598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>86</v>
       </c>
@@ -3565,7 +3633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>66</v>
       </c>
@@ -3600,7 +3668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>17</v>
       </c>
@@ -3642,8 +3710,12 @@
         <f>(D72-D71)/D71</f>
         <v>0.45387632763949781</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <f>AVERAGE(M52,M62,M72)</f>
+        <v>0.48804894198943644</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>57</v>
       </c>
@@ -3678,7 +3750,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>107</v>
       </c>
@@ -3712,8 +3784,12 @@
       <c r="K74">
         <v>193</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M74" t="e">
+        <f>(D74-D73)/D73</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>77</v>
       </c>
@@ -3748,7 +3824,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>27</v>
       </c>
@@ -3782,8 +3858,16 @@
       <c r="K76">
         <v>193</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <f>(D76-D75)/D75</f>
+        <v>0.26043534613038494</v>
+      </c>
+      <c r="N76">
+        <f>D76-D75</f>
+        <v>8.660274317609904</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>97</v>
       </c>
@@ -3818,7 +3902,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>47</v>
       </c>
@@ -3856,8 +3940,16 @@
         <f>(AVERAGE(D77:D78)-AVERAGE(D75:D76,D79:D80))/AVERAGE(D75:D76,D79:D80)</f>
         <v>2.4986344025184235</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <f>(D78-D77)/D77</f>
+        <v>-7.9944340319489826E-2</v>
+      </c>
+      <c r="N78">
+        <f>D78-D77</f>
+        <v>-6.4391498748331912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>87</v>
       </c>
@@ -3892,7 +3984,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>37</v>
       </c>
@@ -3926,8 +4018,16 @@
       <c r="K80">
         <v>193</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <f>(D80-D79)/D79</f>
+        <v>-0.66141541172696527</v>
+      </c>
+      <c r="N80">
+        <f>D80-D79</f>
+        <v>-6.5423211483579102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>18</v>
       </c>
@@ -3962,7 +4062,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>67</v>
       </c>
@@ -4004,8 +4104,12 @@
         <f>(D82-D81)/D81</f>
         <v>-6.0003957757977316E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N82">
+        <f>D82-D81</f>
+        <v>-104.37395971091996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>38</v>
       </c>
@@ -4040,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>108</v>
       </c>
@@ -4075,7 +4179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>88</v>
       </c>
@@ -4110,7 +4214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>58</v>
       </c>
@@ -4145,7 +4249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>19</v>
       </c>
@@ -4180,7 +4284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>28</v>
       </c>
@@ -4219,7 +4323,7 @@
         <v>0.3417344887510213</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>98</v>
       </c>
@@ -4254,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>48</v>
       </c>
@@ -4289,7 +4393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>78</v>
       </c>
@@ -4324,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>68</v>
       </c>
@@ -4367,7 +4471,7 @@
         <v>6.6912785362598037E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>49</v>
       </c>
@@ -4402,7 +4506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>59</v>
       </c>
@@ -4437,7 +4541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>89</v>
       </c>
@@ -4472,7 +4576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>109</v>
       </c>
@@ -7343,7 +7447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>119</v>
       </c>
@@ -7378,7 +7482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>618</v>
       </c>
@@ -7412,8 +7516,12 @@
       <c r="K178">
         <v>30</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L178">
+        <f>(D178-D177)/D177</f>
+        <v>5.7828073089701039E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>518</v>
       </c>
@@ -7448,7 +7556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>418</v>
       </c>
@@ -7483,7 +7591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>818</v>
       </c>
@@ -7518,7 +7626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1014</v>
       </c>
@@ -7553,7 +7661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>318</v>
       </c>
@@ -7588,7 +7696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>914</v>
       </c>
@@ -7623,7 +7731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>719</v>
       </c>
@@ -7658,7 +7766,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>219</v>
       </c>
@@ -7693,7 +7801,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>619</v>
       </c>
@@ -7728,7 +7836,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>120</v>
       </c>
@@ -7763,7 +7871,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1015</v>
       </c>
@@ -7798,7 +7906,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>915</v>
       </c>
@@ -7833,7 +7941,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>519</v>
       </c>
@@ -7868,7 +7976,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>819</v>
       </c>
